--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -451,211 +451,281 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>001463</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>光大保德信一带一路战略主题混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>89.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>005328</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>前海开源价值策略股票</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002773</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>88.20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002774</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -670,20 +740,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005328</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源价值策略股票</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>009994</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>嘉实创新先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>27.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005303</t>
+          <t>070002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票A</t>
+          <t>嘉实增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>33.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005304</t>
+          <t>506005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实医药健康股票C</t>
+          <t>博时科创板三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>005303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>嘉实医药健康股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>12.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>070002</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实增长混合</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.93</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009334</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国融享18个月定期开放混合</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009994</t>
+          <t>009334</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实创新先锋混合A</t>
+          <t>富国融享18个月定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>87.81</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>82.78</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>005304</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>嘉实医药健康股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>630006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>华商产业升级混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>005328</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>前海开源价值策略股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>004558</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>汇安丰裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>506005</t>
+          <t>004806</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时科创板三年定期开放混合</t>
+          <t>长信先机两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>85.38</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>630006</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华商产业升级混合</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.88</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>010055</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>万家健康产业混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1332,15 +1632,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>72.86</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1350,26 +1660,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004806</t>
+          <t>004559</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>72.80</t>
-        </is>
-      </c>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1668,7 +1669,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -1684,6 +1684,2456 @@
       </c>
       <c r="H24" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0550</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8845</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6844</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4984</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004480</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝智慧产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>070017</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实量化阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4139,4 +4140,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4994,4 +4995,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5003,7 +5004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5014,17 +5015,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5034,14 +5055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.79</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5050,14 +5093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>63</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.6</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5066,14 +5131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.68</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5082,13 +5169,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>63</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5668,7 +5669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5679,17 +5680,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5699,14 +5720,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.67</v>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5715,14 +5758,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.79</v>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5731,14 +5796,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.6</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8930</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5747,14 +5834,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.68</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5763,13 +5872,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5714</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6523,7 +6524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6534,17 +6535,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6554,14 +6575,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.86</v>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6570,14 +6613,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.67</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6586,14 +6651,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.79</v>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6602,14 +6689,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>63</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.6</v>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7676</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6618,14 +6727,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.68</v>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -6634,13 +6765,941 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4029</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.61</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>6.15</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>6.86</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>4.67</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>16.6</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>6.68</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.61</v>
       </c>
     </row>
@@ -600,6 +617,1426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6147</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014551</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2495,7 +3932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3159,7 +4596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4013,7 +5450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6463,7 +7900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7386,7 +8823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
+++ b/数据整理/stocks/A股/科创板/688016-心脉医疗.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>7.33</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>6.15</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>6.86</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>4.67</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>16.6</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>6.68</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,352 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +956,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3078,7 +5181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3932,7 +6035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4596,7 +6699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5450,7 +7553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7900,7 +10003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8821,326 +10924,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1824</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1412</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001463</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信一带一路战略主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1234</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002773</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1182</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005328</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源价值策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002774</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信铭鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>